--- a/Materials/Kosztorys.xlsx
+++ b/Materials/Kosztorys.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Christmas tree AGH\PCB_Christmas_Tree_AGH\Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50A7D3E9-9C29-4A0F-9DD4-3E25ED9DCA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530B0C07-3E2D-42B6-9EA1-D219A0374658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{AC102F0A-CAB9-4BFD-8228-C46C31FD2513}"/>
   </bookViews>
   <sheets>
     <sheet name="Wersja_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Element</t>
   </si>
@@ -98,30 +98,15 @@
     <t>Cena przy 1000 sztuk</t>
   </si>
   <si>
-    <t>0603WAJ0104T5E</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/pl/details/0603waj0104t5e/rezystory-smd/royal-ohm/</t>
-  </si>
-  <si>
     <t>Cena przy 5000 sztuk</t>
   </si>
   <si>
     <t>TACTM-64N-F</t>
   </si>
   <si>
-    <t>https://www.tme.eu/pl/details/tactm-64n-f/mikroprzelaczniki-tact/ninigi/</t>
-  </si>
-  <si>
-    <t>AKTUALNIE BRAK</t>
-  </si>
-  <si>
     <t>FYLS-0805URC (czerwone)</t>
   </si>
   <si>
-    <t>https://www.tme.eu/pl/details/fyls-0805urc/diody-led-smd-kolorowe/foryard/</t>
-  </si>
-  <si>
     <t>Cena przy 1000 sztukach</t>
   </si>
   <si>
@@ -146,15 +131,9 @@
     <t>0603SAF1000T5E</t>
   </si>
   <si>
-    <t>https://www.tme.eu/pl/details/0603saf1000t5e/rezystory-smd/royal-ohm/</t>
-  </si>
-  <si>
     <t>BC-2002</t>
   </si>
   <si>
-    <t>https://www.tme.eu/pl/details/bc-2002/baterie-pojemniki-i-uchwyty/comf/</t>
-  </si>
-  <si>
     <t>Bateria CR2032</t>
   </si>
   <si>
@@ -162,13 +141,28 @@
   </si>
   <si>
     <t>SUMA</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/pts645sk43smtr92/mikroprzelaczniki-tact/c-k/pts645sk43smtr92-lfs/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/rf-rub170ts-bd/diody-led-smd-kolorowe/refond/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/0603saf2200t5e/rezystory-smd/royal-ohm/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/keys3003/baterie-pojemniki-i-uchwyty/keystone/3003/</t>
+  </si>
+  <si>
+    <t>Cena przy 20 sztukach</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -259,12 +253,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Liberation Serif"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Liberation Sans"/>
     </font>
     <font>
       <sz val="10"/>
@@ -400,26 +388,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent" xfId="1" xr:uid="{E60D531A-E7CB-40B6-A7CB-73CF5ACA76DE}"/>
@@ -773,9 +753,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D1AB26-85BE-4307-8C56-0F5FE5676DED}">
-  <dimension ref="B2:I19"/>
+  <dimension ref="B2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -822,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E16" si="0">D3*C3</f>
+        <f t="shared" ref="E3:E15" si="0">D3*C3</f>
         <v>1.778</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -903,11 +885,11 @@
         <v>7.11E-3</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>7.11E-3</v>
+        <v>3.5549999999999998E-2</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>19</v>
@@ -916,206 +898,185 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="25.5">
+    <row r="8" spans="2:9" ht="38.25">
       <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3.2799999999999999E-3</v>
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>0.55600000000000005</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>3.2799999999999999E-3</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="25.5">
       <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.69699999999999995</v>
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>7.3099999999999998E-2</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>0.69699999999999995</v>
+        <v>0.43859999999999999</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" ht="25.5">
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2">
-        <v>0.1086</v>
+        <v>6.5299999999999997E-2</v>
       </c>
       <c r="D10" s="3">
         <v>6</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>0.65159999999999996</v>
+        <v>0.39179999999999998</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" ht="25.5">
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2">
-        <v>6.5299999999999997E-2</v>
+        <v>0.1368</v>
       </c>
       <c r="D11" s="3">
         <v>6</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>0.39179999999999998</v>
+        <v>0.82079999999999997</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" ht="25.5">
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2">
-        <v>0.1368</v>
-      </c>
-      <c r="D12" s="3">
+        <v>9.74E-2</v>
+      </c>
+      <c r="D12" s="2">
         <v>6</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>0.82079999999999997</v>
+        <v>0.58440000000000003</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="6"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="25.5">
       <c r="B13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9.74E-2</v>
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>0.58440000000000003</v>
+        <v>0.11280000000000001</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="2:9" ht="25.5">
       <c r="B14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4.0200000000000001E-3</v>
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>1.9359999999999999</v>
       </c>
       <c r="D14" s="2">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>9.648000000000001E-2</v>
+        <v>1.9359999999999999</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="6"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="2:9" ht="25.5">
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2">
-        <v>0.73</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="0"/>
-        <v>0.73</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="25.5">
-      <c r="B16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="18.75">
-      <c r="B19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="10">
-        <f>SUM(E3:E16)</f>
-        <v>6.9815700000000014</v>
+    <row r="18" spans="2:3" ht="18.75">
+      <c r="B18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6">
+        <f>SUM(E3:E15)</f>
+        <v>7.8750499999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1125,11 +1086,10 @@
     <hyperlink ref="F5" r:id="rId3" xr:uid="{FB1DC121-BEA1-496F-8ACC-ED119995ABAB}"/>
     <hyperlink ref="F6" r:id="rId4" xr:uid="{7377C3C7-9F39-4F83-9EB6-BAF7F43AB40B}"/>
     <hyperlink ref="F7" r:id="rId5" xr:uid="{4C6F9BF3-1807-4D87-8124-AA33817440FE}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{EBCA7ED7-600E-420C-927C-30AF1511F097}"/>
-    <hyperlink ref="F9" r:id="rId7" xr:uid="{CBFD2B84-E573-4914-9B8F-ECA1263B5629}"/>
-    <hyperlink ref="F10" r:id="rId8" xr:uid="{98774245-2BFD-4EA9-813B-3A4EB755F102}"/>
-    <hyperlink ref="F13" r:id="rId9" xr:uid="{E4ABD431-BD9B-4700-B3FE-60F6875EE9DB}"/>
-    <hyperlink ref="F15" r:id="rId10" xr:uid="{DC62B3D1-B5D7-4522-B65D-9146389CB3B6}"/>
+    <hyperlink ref="F12" r:id="rId6" xr:uid="{E4ABD431-BD9B-4700-B3FE-60F6875EE9DB}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{DBC82881-623B-4B32-AC6D-27C9B2149BFE}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{EAA0720E-D0C0-49FB-AE2B-CC4E9B8ED97B}"/>
+    <hyperlink ref="F15" r:id="rId9" xr:uid="{0B1A6CDB-F7A1-49C6-93C0-42D7E1193D1B}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39370000000000005" bottom="0.39370000000000005" header="0" footer="0"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
